--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1140783.944951911</v>
+        <v>1134779.735136632</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1042617.113969142</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10869967.54494176</v>
+        <v>11126400.51662541</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>24.14763241892861</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,7 +667,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -712,22 +712,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>50.04052206184288</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>70.3899240886829</v>
+        <v>158.0933671656955</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>218.5174356271565</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>227.7172236952955</v>
       </c>
     </row>
     <row r="6">
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1062,13 +1062,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>28.64646941602245</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1104,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>224.7562560951392</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1135,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>206.7521768102497</v>
       </c>
       <c r="D8" t="n">
-        <v>169.5015886993131</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1150,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>251.4632765826875</v>
+        <v>220.2858449881296</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>134.0513867710694</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>196.9899243971805</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1618,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>158.1556649146125</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>74.75769145492379</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>110.0177171766865</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>115.4764219077138</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>117.4765410832877</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>33.84547402811469</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2332,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>18.70843787977307</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>112.6849016609948</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,10 +2718,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>32.27552175740409</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>4.019807611472022</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2958,13 +2958,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>55.52079624060555</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>36.4306205949047</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>99.9742741983392</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>206.7582264966136</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520993</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3669,13 +3669,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>99.9742741983392</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3793,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4149,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>212.4076860934775</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1661.795585684488</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C2" t="n">
-        <v>1292.833068744076</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
         <v>934.5673701373257</v>
@@ -4327,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136265</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>3164.769171255616</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2812.000515985501</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2438.534757724422</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="Y2" t="n">
-        <v>2048.39542574861</v>
+        <v>2071.97538618064</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>936.5735814686084</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064745</v>
+        <v>846.0716871064759</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>827.0643955080138</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4518,22 +4518,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1856.193614665581</v>
+        <v>1767.604278224154</v>
       </c>
       <c r="U4" t="n">
-        <v>1567.090747791224</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="V4" t="n">
-        <v>1312.406259585337</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="W4" t="n">
-        <v>1312.406259585337</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X4" t="n">
-        <v>1312.406259585337</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y4" t="n">
-        <v>1091.613680441807</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912089</v>
@@ -4588,31 +4588,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3104.881139157497</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2773.818251813927</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W5" t="n">
-        <v>2421.049596543812</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="X5" t="n">
-        <v>2047.583838282732</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="Y5" t="n">
-        <v>2047.583838282732</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>561.3907139632884</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>392.4545310353815</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>242.3378916230457</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>242.3378916230457</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>95.44794412513539</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4752,25 +4752,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1735.608663915319</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U7" t="n">
-        <v>1446.505797040963</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="V7" t="n">
-        <v>1191.821308835076</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="W7" t="n">
-        <v>1191.821308835076</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>963.8317579370582</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>743.0391787935281</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.569348694472</v>
+        <v>2185.045504370169</v>
       </c>
       <c r="C8" t="n">
-        <v>1491.569348694472</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995485</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734406</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758594</v>
+        <v>2571.645344434291</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>458.6408346941415</v>
+        <v>530.2513404403938</v>
       </c>
       <c r="C10" t="n">
-        <v>458.6408346941415</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="D10" t="n">
-        <v>458.6408346941415</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>310.7277411117484</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4992,22 +4992,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1451.524622978537</v>
+        <v>1704.783593555029</v>
       </c>
       <c r="V10" t="n">
-        <v>1196.84013477265</v>
+        <v>1450.099105349142</v>
       </c>
       <c r="W10" t="n">
-        <v>907.422964735689</v>
+        <v>1160.681935312181</v>
       </c>
       <c r="X10" t="n">
-        <v>679.4334138376717</v>
+        <v>932.6923844141637</v>
       </c>
       <c r="Y10" t="n">
-        <v>458.6408346941415</v>
+        <v>711.8998052706336</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2303.170539913434</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1934.208022973022</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1575.942324366272</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1190.154071768027</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>779.1681669784198</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>364.0957168234162</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>3079.909711953368</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>3079.909711953368</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3079.909711953368</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3079.909711953368</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3079.909711953368</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2689.770379977556</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811095</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999825</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387314</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332758</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601609</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927789</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031484</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158141</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.42807043813</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125858</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619338</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431609</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501178</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>163.8377936138381</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>163.8377936138381</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>163.8377936138381</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>163.8377936138381</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>163.8377936138381</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>163.8377936138381</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U13" t="n">
-        <v>1134.908724368016</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V13" t="n">
-        <v>880.2242361621296</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W13" t="n">
-        <v>590.8070661251691</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X13" t="n">
-        <v>362.8175152271517</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>163.8377936138381</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1381.278680221568</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1012.316163281156</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>654.0504646744059</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>268.2622120761617</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>268.2622120761617</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>268.2622120761617</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810562</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.77673900139</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>3215.315153136266</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>3215.315153136266</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>2884.252265792696</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>2531.483610522581</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>2158.017852261502</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>1767.87852028569</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064547</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>160.189385922801</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158135</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.51211643218343</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>66.51211643218343</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>66.51211643218343</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>66.51211643218343</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218343</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218343</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218343</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764914</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581905</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>1617.076751502319</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935978</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.464090846021</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672847</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242373</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U16" t="n">
-        <v>1134.908724368016</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V16" t="n">
-        <v>880.2242361621296</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W16" t="n">
-        <v>590.8070661251691</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X16" t="n">
-        <v>362.8175152271517</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y16" t="n">
-        <v>142.0249360836216</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5509,37 +5509,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
         <v>1072.713683962606</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400721</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713842</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703119</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.852361107581</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>716.6687843969299</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969299</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2943.137787032318</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>2774.201604104411</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>2774.201604104411</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>2626.288510522018</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>2479.398563024107</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>2479.398563024107</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4406.745266802754</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>4117.670040146952</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3862.985551941066</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3573.568381904105</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3345.578831006088</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>3124.786251862557</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6007,31 +6007,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
@@ -6074,16 +6074,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1802.364528928006</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998291</v>
+        <v>584.5295404712656</v>
       </c>
       <c r="E25" t="n">
-        <v>175.9033664000583</v>
+        <v>436.6164468888725</v>
       </c>
       <c r="F25" t="n">
-        <v>175.9033664000583</v>
+        <v>289.7264993909621</v>
       </c>
       <c r="G25" t="n">
         <v>175.9033664000583</v>
@@ -6144,55 +6144,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="26">
@@ -6220,13 +6220,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6238,19 +6238,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>983.3556038098242</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>814.4194208819173</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>664.3027814695815</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>265.0731740618515</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>97.87707477673149</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.963083580261</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>2157.887856924459</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1903.203368718572</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1613.786198681611</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1385.796647783594</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>1165.004068640064</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6454,31 +6454,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6545,22 +6545,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1468.439756756785</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3007.624207651098</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C31" t="n">
-        <v>2838.688024723192</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D31" t="n">
-        <v>2688.571385310856</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E31" t="n">
-        <v>2540.658291728463</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>2393.768344230552</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>2410.164476918741</v>
       </c>
       <c r="S31" t="n">
-        <v>4690.833152398593</v>
+        <v>2410.164476918741</v>
       </c>
       <c r="T31" t="n">
-        <v>4471.231687421535</v>
+        <v>2190.563011941682</v>
       </c>
       <c r="U31" t="n">
-        <v>4182.156460765733</v>
+        <v>1901.48778528588</v>
       </c>
       <c r="V31" t="n">
-        <v>3927.471972559846</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W31" t="n">
-        <v>3638.054802522885</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X31" t="n">
-        <v>3410.065251624868</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y31" t="n">
-        <v>3189.272672481338</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="32">
@@ -6682,13 +6682,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>842.6091804069456</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1470.207143961552</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2445.740023695907</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2757.723669558405</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>2588.787486630498</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>2438.670847218162</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>2337.686731866304</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>2337.686731866304</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>2337.686731866304</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>2939.372134388645</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6931,19 +6931,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6955,31 +6955,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1963.765362972544</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2227.361618603201</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172278</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135318</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.1082042373</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7165,37 +7165,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7265,13 +7265,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1767.889897446606</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2757.723669558405</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C40" t="n">
-        <v>2588.787486630498</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D40" t="n">
-        <v>2438.670847218162</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E40" t="n">
-        <v>2337.686731866304</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F40" t="n">
-        <v>2337.686731866304</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.331149328841</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U40" t="n">
-        <v>3932.255922673039</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V40" t="n">
-        <v>3677.571434467152</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W40" t="n">
-        <v>3388.154264430192</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X40" t="n">
-        <v>3160.164713532175</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y40" t="n">
-        <v>2939.372134388645</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7484,10 +7484,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
@@ -7502,10 +7502,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7599,22 +7599,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="44">
@@ -7624,43 +7624,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3173.601046153952</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>3173.601046153952</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>3023.484406741616</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>2875.571313159223</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661313</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.255922673039</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V46" t="n">
-        <v>3677.571434467152</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W46" t="n">
-        <v>3388.154264430192</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X46" t="n">
-        <v>3173.601046153952</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y46" t="n">
-        <v>3173.601046153952</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
   </sheetData>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,19 +23311,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>69.86658336855078</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>21.5947289549143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23506,13 +23506,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>136.4520994727079</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,10 +23548,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>105.0742887270135</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>57.22910392194132</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>65.54986409393081</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>31.13893193492463</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>183.5599762991736</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24366,19 +24366,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>127.7255247667961</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>52.83923663127408</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24606,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>114.1584408891651</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>110.0033420516633</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>29.94462611521699</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>46.45968844822997</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>45.37941682721438</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25557,13 +25557,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>46.45968844822997</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>13.30196929555964</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>811102.286021861</v>
+        <v>958156.3580759545</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>811102.2860218609</v>
+        <v>958156.3580759544</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>958156.3580759545</v>
+        <v>958156.3580759544</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>958156.3580759544</v>
+        <v>958156.3580759545</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>958156.3580759546</v>
+        <v>958156.3580759544</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>958156.3580759545</v>
+        <v>958156.3580759544</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>958156.3580759544</v>
+        <v>958156.3580759545</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>958156.3580759546</v>
+        <v>958156.3580759545</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>958156.3580759546</v>
+        <v>958156.3580759544</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719633</v>
+        <v>472099.0176719632</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719632</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="D2" t="n">
         <v>472099.0176719631</v>
       </c>
       <c r="E2" t="n">
-        <v>392146.6638165589</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="F2" t="n">
-        <v>392146.663816559</v>
+        <v>464109.2948217535</v>
       </c>
       <c r="G2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="H2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="I2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="J2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="K2" t="n">
         <v>464109.2948217536</v>
       </c>
       <c r="L2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="M2" t="n">
         <v>464109.2948217536</v>
       </c>
       <c r="N2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="O2" t="n">
         <v>464109.2948217536</v>
       </c>
       <c r="P2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>309843.0334598203</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>82135.83059545131</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813254</v>
+        <v>89744.12305813246</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813251</v>
+        <v>89744.12305813246</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813251</v>
+        <v>89744.12305813246</v>
       </c>
       <c r="E4" t="n">
-        <v>10380.34706710378</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="F4" t="n">
-        <v>10380.34706710378</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="G4" t="n">
         <v>10557.08828678121</v>
@@ -26478,10 +26478,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-1054323.791675155</v>
       </c>
       <c r="C6" t="n">
-        <v>274420.9540524374</v>
+        <v>274420.9540524373</v>
       </c>
       <c r="D6" t="n">
         <v>274420.9540524373</v>
       </c>
       <c r="E6" t="n">
-        <v>307459.9761880618</v>
+        <v>26669.83564935352</v>
       </c>
       <c r="F6" t="n">
-        <v>307459.9761880619</v>
+        <v>352082.297456708</v>
       </c>
       <c r="G6" t="n">
-        <v>42586.64325124501</v>
+        <v>352082.2974567084</v>
       </c>
       <c r="H6" t="n">
-        <v>352429.6767110653</v>
+        <v>352082.2974567084</v>
       </c>
       <c r="I6" t="n">
-        <v>352429.6767110656</v>
+        <v>352082.2974567083</v>
       </c>
       <c r="J6" t="n">
-        <v>134898.4743137879</v>
+        <v>134551.0950594308</v>
       </c>
       <c r="K6" t="n">
-        <v>352429.6767110653</v>
+        <v>352082.2974567083</v>
       </c>
       <c r="L6" t="n">
-        <v>352429.6767110654</v>
+        <v>352082.2974567084</v>
       </c>
       <c r="M6" t="n">
-        <v>352429.6767110653</v>
+        <v>267027.2695211966</v>
       </c>
       <c r="N6" t="n">
-        <v>352429.6767110654</v>
+        <v>352082.2974567083</v>
       </c>
       <c r="O6" t="n">
-        <v>270293.8461156141</v>
+        <v>352082.2974567083</v>
       </c>
       <c r="P6" t="n">
-        <v>352429.6767110653</v>
+        <v>352082.2974567083</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26789,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>278.1987997483759</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>341.3068326973557</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>341.3068326973555</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>341.3068326973557</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>358.586209244552</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>277.711736408292</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,19 +27590,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>149.1590251874863</v>
+        <v>61.45558211047367</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>32.47773633174543</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>158.5207149607581</v>
       </c>
     </row>
     <row r="6">
@@ -27782,13 +27782,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>137.3793388430058</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27824,16 +27824,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>61.45558211047373</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>158.5207149607579</v>
       </c>
       <c r="D8" t="n">
-        <v>185.1814529213698</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28064,10 +28064,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>34.74856162292542</v>
+        <v>65.92599321748332</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -30054,7 +30054,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30212,7 +30212,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>-2.851208009312419e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565758</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>616.5397119226047</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,22 +32791,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33496,16 +33496,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,16 +33514,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>211.3773391483997</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33739,7 +33739,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33751,10 +33751,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33985,16 +33985,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>230.1272937575231</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34222,13 +34222,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34459,16 +34459,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>370.9642309107746</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,22 +35962,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121313</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>477.9853321427306</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,19 +36442,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,19 +36676,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,16 +37162,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>71.39556506237817</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37399,10 +37399,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37633,16 +37633,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>98.78558167418976</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37870,13 +37870,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38107,16 +38107,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>228.3679864663302</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1134779.735136632</v>
+        <v>1137934.654478854</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>1042617.113969143</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11126400.51662541</v>
+        <v>10869967.54494176</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24.14763241892861</v>
+        <v>370.064896548357</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -870,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>158.0933671656955</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>157.7822070347161</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>227.7172236952955</v>
+        <v>227.7172236952942</v>
       </c>
     </row>
     <row r="6">
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>224.7562560951392</v>
+        <v>192.1675620474802</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>206.7521768102497</v>
+        <v>206.7521768102483</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1296,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="U10" t="n">
-        <v>220.2858449881296</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>331.471264392117</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.4010792945512</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
-        <v>188.3046392154443</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1533,16 +1533,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>6.380068175847845</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>107.4021082756239</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1618,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>369.9501358397496</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1672,10 +1672,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784677</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.4010792945512</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
-        <v>188.3046392154443</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>35.22061871095737</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>107.4021082756239</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0.0127623547350538</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.4764219077138</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>117.4765410832877</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>25.52471385612597</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2332,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>132.6164309267676</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2490,13 +2490,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>112.6849016609948</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>4.019807611472022</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>13.79222725775231</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2958,7 +2958,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>36.4306205949047</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>172.3645574474256</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>122.4116053749664</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>148.0280580960833</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>55.52079624060383</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>55.52079624060383</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4030,7 +4030,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4149,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>55.5207962406042</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>106.8299898147636</v>
       </c>
     </row>
   </sheetData>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2047.583838282732</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
         <v>934.5673701373257</v>
@@ -4327,55 +4327,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.97538618064</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2071.97538618064</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686084</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064759</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080138</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986312</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4476,55 +4476,55 @@
         <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T4" t="n">
-        <v>1767.604278224154</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U4" t="n">
-        <v>1478.501411349798</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V4" t="n">
-        <v>1478.501411349798</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W4" t="n">
         <v>1478.501411349798</v>
@@ -4564,13 +4564,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4579,37 +4579,37 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V5" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W5" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="X5" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="Y5" t="n">
         <v>2731.767278738087</v>
@@ -4622,70 +4622,70 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4713,16 +4713,16 @@
         <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4755,10 +4755,10 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1478.501411349798</v>
+        <v>1733.185899555685</v>
       </c>
       <c r="V7" t="n">
         <v>1478.501411349798</v>
@@ -4780,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2185.045504370169</v>
+        <v>2185.045504370168</v>
       </c>
       <c r="C8" t="n">
         <v>1976.204921733553</v>
@@ -4801,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V8" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W8" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="X8" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="Y8" t="n">
-        <v>2571.645344434291</v>
+        <v>2571.64534443429</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>530.2513404403938</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>361.3151575124869</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E10" t="n">
         <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4992,22 +4992,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="U10" t="n">
-        <v>1704.783593555029</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1450.099105349142</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>1160.681935312181</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>932.6923844141637</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>711.8998052706336</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>1179.52858457759</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>810.5660676371781</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>452.3003690304276</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192588</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>768.9460839967196</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>620.0116743354683</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589157</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143764</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2553.061288060775</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>72.95662974112065</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T13" t="n">
-        <v>2338.476105524075</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U13" t="n">
-        <v>2049.400878868273</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V13" t="n">
-        <v>1794.716390662386</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.299220625425</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727408</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>423.5412774992673</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>1938.906022842683</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1938.906022842683</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1580.640324235932</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1194.852071637688</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>406.0926155839474</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>2678.274518176919</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>2325.505862906804</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>2325.505862906804</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2325.505862906804</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>943.3991132778466</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C15" t="n">
-        <v>768.9460839967196</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D15" t="n">
-        <v>620.0116743354683</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2553.061288060775</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2244.643795685161</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2016.615714228345</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
-        <v>1781.463605996603</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1527.226249268401</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1319.374749062868</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1111.614450297915</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536381</v>
+        <v>644.3338566427979</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257312</v>
+        <v>608.7574741064773</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133954</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>632.1817302764917</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>976.3387758760409</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T16" t="n">
-        <v>2338.476105524075</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U16" t="n">
-        <v>2049.400878868273</v>
+        <v>1416.425065783663</v>
       </c>
       <c r="V16" t="n">
-        <v>1794.716390662386</v>
+        <v>1161.740577577776</v>
       </c>
       <c r="W16" t="n">
-        <v>1505.299220625425</v>
+        <v>872.3234075408152</v>
       </c>
       <c r="X16" t="n">
-        <v>1277.309669727408</v>
+        <v>644.3338566427979</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583878</v>
+        <v>644.3338566427979</v>
       </c>
     </row>
     <row r="17">
@@ -5512,25 +5512,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.0655846733346</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="C19" t="n">
-        <v>411.1294017454277</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D19" t="n">
-        <v>261.0127623330919</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2263.274529420831</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2043.673064443772</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1754.597837787969</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1499.913349582082</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1210.496179545122</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>982.5066286471044</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>761.7140495035743</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>695.5020655703109</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C22" t="n">
-        <v>526.5658826424041</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D22" t="n">
-        <v>407.9027098310023</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>119.599202296584</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>119.599202296584</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>119.599202296584</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5940,22 +5940,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="23">
@@ -5980,7 +5980,7 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>734.6461798836013</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C25" t="n">
-        <v>734.6461798836013</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D25" t="n">
-        <v>584.5295404712656</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E25" t="n">
-        <v>436.6164468888725</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>289.7264993909621</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="26">
@@ -6208,25 +6208,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597619</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E28" t="n">
-        <v>411.9631215597619</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F28" t="n">
-        <v>265.0731740618515</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>97.87707477673149</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2433.031540895662</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2433.031540895662</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2213.430075918604</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1924.354849262801</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1669.670361056914</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1380.253191019954</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>1152.263640121936</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>931.4710609784063</v>
       </c>
     </row>
     <row r="29">
@@ -6457,34 +6457,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>726.955532171245</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C31" t="n">
-        <v>558.0193492433381</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D31" t="n">
-        <v>407.9027098310023</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2410.164476918741</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2410.164476918741</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>2190.563011941682</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U31" t="n">
-        <v>1901.48778528588</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V31" t="n">
-        <v>1646.803297079993</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W31" t="n">
-        <v>1357.386127043032</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X31" t="n">
-        <v>1129.396576145015</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.6039970014847</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6682,13 +6682,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,7 +6697,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6706,13 +6706,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>613.6374994204285</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="35">
@@ -6931,37 +6931,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708873</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7134,13 +7134,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>835.395944601127</v>
       </c>
     </row>
     <row r="38">
@@ -7165,31 +7165,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>763.7541388327643</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>594.8179559048574</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>444.7013164925216</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>296.7882229101285</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>149.8982754122182</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7359,25 +7359,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>945.402603663004</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327643</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>594.8179559048574</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>444.7013164925216</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>296.7882229101285</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>149.8982754122182</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.402603663004</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7721,10 +7721,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2390.881471216014</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>2171.280006238955</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U46" t="n">
-        <v>1882.204779583153</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="V46" t="n">
-        <v>1627.520291377266</v>
+        <v>1905.631426649717</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.103121340305</v>
+        <v>1616.214256612757</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>1388.224705714739</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>51.26257727136363</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23269,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>142.2354048423645</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23506,7 +23506,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>36.92590990196186</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23551,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23560,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>132.0262023876705</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8192178272022</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>65.54986409393081</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>31.13893193492463</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>55.74112246243956</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>47.21554925516972</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>52.83923663127408</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>136.2749052347519</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>52.58301945236937</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24846,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>29.94462611521699</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>114.1584408891654</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>24.02235727160274</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>65.54986409393068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25599,7 +25599,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>125.5054897610404</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>111.7546635373312</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>958156.3580759545</v>
+        <v>811102.2860218609</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>958156.3580759544</v>
+        <v>811102.2860218612</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>958156.3580759544</v>
+        <v>958156.3580759545</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>958156.3580759545</v>
+        <v>958156.3580759544</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>958156.3580759544</v>
+        <v>958156.3580759546</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>958156.3580759545</v>
+        <v>958156.3580759546</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>958156.3580759544</v>
+        <v>958156.3580759545</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>958156.3580759544</v>
+        <v>958156.3580759545</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>958156.3580759545</v>
+        <v>958156.3580759544</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>958156.3580759544</v>
+        <v>958156.3580759546</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>472099.017671963</v>
+      </c>
+      <c r="C2" t="n">
         <v>472099.0176719632</v>
       </c>
-      <c r="C2" t="n">
-        <v>472099.0176719631</v>
-      </c>
       <c r="D2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.0176719632</v>
       </c>
       <c r="E2" t="n">
-        <v>464109.2948217536</v>
+        <v>392146.663816559</v>
       </c>
       <c r="F2" t="n">
-        <v>464109.2948217535</v>
+        <v>392146.6638165589</v>
       </c>
       <c r="G2" t="n">
         <v>464109.2948217537</v>
@@ -26334,28 +26334,28 @@
         <v>464109.2948217536</v>
       </c>
       <c r="I2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="J2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="K2" t="n">
         <v>464109.2948217536</v>
       </c>
       <c r="L2" t="n">
+        <v>464109.2948217536</v>
+      </c>
+      <c r="M2" t="n">
+        <v>464109.2948217538</v>
+      </c>
+      <c r="N2" t="n">
         <v>464109.2948217537</v>
       </c>
-      <c r="M2" t="n">
-        <v>464109.2948217536</v>
-      </c>
-      <c r="N2" t="n">
-        <v>464109.2948217536</v>
-      </c>
       <c r="O2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="P2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.14093847211916e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>3.594527697714511e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>309843.0334598195</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>82135.83059545125</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89744.12305813246</v>
+        <v>89744.12305813257</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813246</v>
+        <v>89744.12305813254</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813246</v>
+        <v>89744.12305813252</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.08828678121</v>
+        <v>10380.34706710378</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.08828678121</v>
+        <v>10380.34706710378</v>
       </c>
       <c r="G4" t="n">
         <v>10557.08828678121</v>
@@ -26438,7 +26438,7 @@
         <v>10557.08828678121</v>
       </c>
       <c r="I4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.0882867812</v>
       </c>
       <c r="J4" t="n">
         <v>10557.08828678121</v>
@@ -26478,10 +26478,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>74306.34056139333</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-1054323.791675155</v>
       </c>
       <c r="C6" t="n">
-        <v>274420.9540524373</v>
+        <v>274420.954052437</v>
       </c>
       <c r="D6" t="n">
-        <v>274420.9540524373</v>
+        <v>274420.9540524374</v>
       </c>
       <c r="E6" t="n">
-        <v>26669.83564935352</v>
+        <v>307112.3572582558</v>
       </c>
       <c r="F6" t="n">
-        <v>352082.297456708</v>
+        <v>307112.3572582553</v>
       </c>
       <c r="G6" t="n">
-        <v>352082.2974567084</v>
+        <v>42551.90532581016</v>
       </c>
       <c r="H6" t="n">
-        <v>352082.2974567084</v>
+        <v>352394.9387856296</v>
       </c>
       <c r="I6" t="n">
-        <v>352082.2974567083</v>
+        <v>352394.9387856296</v>
       </c>
       <c r="J6" t="n">
-        <v>134551.0950594308</v>
+        <v>134863.7363883522</v>
       </c>
       <c r="K6" t="n">
-        <v>352082.2974567083</v>
+        <v>352394.9387856295</v>
       </c>
       <c r="L6" t="n">
-        <v>352082.2974567084</v>
+        <v>352394.9387856296</v>
       </c>
       <c r="M6" t="n">
-        <v>267027.2695211966</v>
+        <v>352394.9387856298</v>
       </c>
       <c r="N6" t="n">
-        <v>352082.2974567083</v>
+        <v>352394.9387856296</v>
       </c>
       <c r="O6" t="n">
-        <v>352082.2974567083</v>
+        <v>270259.1081901785</v>
       </c>
       <c r="P6" t="n">
-        <v>352082.2974567083</v>
+        <v>352394.9387856298</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="D4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="E4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1172.708288099648</v>
-      </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26822,7 +26822,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26962,19 +26962,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>278.198799748375</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,14 +27020,14 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
         <v>341.3068326973553</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>341.3068326973553</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>341.3068326973553</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>358.586209244552</v>
+        <v>12.66894511512362</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>61.45558211047367</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>94.35543628911191</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>158.5207149607581</v>
+        <v>158.5207149607594</v>
       </c>
     </row>
     <row r="6">
@@ -27827,13 +27827,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>61.45558211047373</v>
+        <v>94.0442761581327</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>158.5207149607579</v>
+        <v>158.5207149607592</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28064,10 +28064,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>147.8785773062519</v>
       </c>
       <c r="U10" t="n">
-        <v>65.92599321748332</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565771</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>299.2156706987471</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32323,13 +32323,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32800,10 +32800,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33745,13 +33745,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33982,13 +33982,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34219,13 +34219,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121327</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>159.2338966127256</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35971,13 +35971,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36448,10 +36448,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37393,13 +37393,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37630,13 +37630,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37867,13 +37867,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
